--- a/Assignment3/TestCase-Assignment3-QuynhAnh.xlsx
+++ b/Assignment3/TestCase-Assignment3-QuynhAnh.xlsx
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F153" authorId="1" shapeId="0">
+    <comment ref="F151" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F162" authorId="1" shapeId="0">
+    <comment ref="F160" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F164" authorId="1" shapeId="0">
+    <comment ref="F162" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="355">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -1227,12 +1227,6 @@
   <si>
     <t>- System will treat SQL injection as normal data (searched word is the SQL injejction, result page displays if any keyword matchs but normally no result found)
 - No error occurs</t>
-  </si>
-  <si>
-    <t>Search with each word</t>
-  </si>
-  <si>
-    <t>Search with full compound word</t>
   </si>
   <si>
     <t>Search with keyword using wildcard</t>
@@ -2053,7 +2047,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2244,12 +2238,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
@@ -2690,7 +2678,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -3170,9 +3158,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3251,6 +3236,21 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3278,19 +3278,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3299,9 +3326,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3314,55 +3338,16 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4150,37 +4135,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="181"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="180"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="183" t="s">
+      <c r="B5" s="181"/>
+      <c r="C5" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="185"/>
-      <c r="C6" s="178" t="s">
+      <c r="B6" s="184"/>
+      <c r="C6" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -4192,14 +4177,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="142" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
     </row>
     <row r="9" spans="1:6" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="143" t="s">
@@ -4282,14 +4267,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="142" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="178"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -4412,36 +4397,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="189" t="s">
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="189"/>
+      <c r="K2" s="188"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="190" t="s">
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="148"/>
@@ -4461,65 +4446,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="196"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="196"/>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="195"/>
     </row>
     <row r="11" spans="1:11" ht="14.25">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="197"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="197"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="197"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="197"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -4541,65 +4526,65 @@
       <c r="A14" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="193" t="s">
+      <c r="B14" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="194"/>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="195"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="194"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="193" t="s">
+      <c r="B15" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="195"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="194"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="130"/>
-      <c r="B16" s="193" t="s">
+      <c r="B16" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="195"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="194"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="130"/>
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="195"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="194"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="4" t="s">
@@ -4610,40 +4595,40 @@
       <c r="A20" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="193" t="s">
+      <c r="B20" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="194"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="195"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="194"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="193" t="s">
+      <c r="B21" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="195"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="194"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="193" t="s">
+      <c r="B22" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="195"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="194"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="4" t="s">
@@ -4702,11 +4687,11 @@
       <c r="N27" s="66"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="187"/>
-      <c r="D29" s="188"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -4783,14 +4768,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="25.5">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -4976,12 +4961,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="26.25">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
       <c r="E2" s="151"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -5142,18 +5127,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="199"/>
+      <c r="B16" s="198"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="200" t="s">
+      <c r="A17" s="199" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="200"/>
+      <c r="B17" s="199"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -5180,10 +5165,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X164"/>
+  <dimension ref="A1:X162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5198,10 +5183,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="213"/>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
+      <c r="A1" s="201"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -5210,13 +5195,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="209"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="213"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -5225,9 +5210,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="209"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -5238,11 +5223,11 @@
       <c r="A4" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="204" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -5256,11 +5241,11 @@
       <c r="A5" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="203" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -5274,11 +5259,11 @@
       <c r="A6" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="203" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -5289,11 +5274,11 @@
       <c r="A7" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="204" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -5305,9 +5290,9 @@
       <c r="A8" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -5349,15 +5334,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="71">
-        <f>COUNTIF($F$19:$F$49716,"*Passed")</f>
+        <f>COUNTIF($F$19:$F$49714,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="71">
-        <f>COUNTIF($G$19:$G$49716,"*Passed")</f>
+        <f>COUNTIF($G$19:$G$49714,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="71">
-        <f>COUNTIF($H$19:$H$49716,"*Passed")</f>
+        <f>COUNTIF($H$19:$H$49714,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -5366,15 +5351,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="71">
-        <f>COUNTIF($F$19:$F$49436,"*Failed*")</f>
+        <f>COUNTIF($F$19:$F$49434,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="71">
-        <f>COUNTIF($G$19:$G$49436,"*Failed*")</f>
+        <f>COUNTIF($G$19:$G$49434,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="71">
-        <f>COUNTIF($H$19:$H$49436,"*Failed*")</f>
+        <f>COUNTIF($H$19:$H$49434,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -5383,15 +5368,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="71">
-        <f>COUNTIF($F$19:$F$49436,"*Not Run*")</f>
+        <f>COUNTIF($F$19:$F$49434,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="71">
-        <f>COUNTIF($G$19:$G$49436,"*Not Run*")</f>
+        <f>COUNTIF($G$19:$G$49434,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="71">
-        <f>COUNTIF($H$19:$H$49436,"*Not Run*")</f>
+        <f>COUNTIF($H$19:$H$49434,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -5405,15 +5390,15 @@
         <v>100</v>
       </c>
       <c r="B14" s="71">
-        <f>COUNTIF($F$19:$F$49436,"*NA*")</f>
+        <f>COUNTIF($F$19:$F$49434,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="71">
-        <f>COUNTIF($G$19:$G$49436,"*NA*")</f>
+        <f>COUNTIF($G$19:$G$49434,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="71">
-        <f>COUNTIF($H$19:$H$49436,"*NA*")</f>
+        <f>COUNTIF($H$19:$H$49434,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -5427,15 +5412,15 @@
         <v>101</v>
       </c>
       <c r="B15" s="71">
-        <f>COUNTIF($F$19:$F$49436,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$19:$F$49434,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="71">
-        <f>COUNTIF($G$19:$G$49436,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$19:$G$49434,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="71">
-        <f>COUNTIF($H$19:$H$49436,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$19:$H$49434,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -5450,11 +5435,11 @@
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
       <c r="E16" s="55"/>
-      <c r="F16" s="202" t="s">
+      <c r="F16" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
       <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
@@ -5488,11 +5473,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="63"/>
-      <c r="B18" s="203" t="s">
+      <c r="B18" s="207" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="207"/>
-      <c r="D18" s="208"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="212"/>
       <c r="E18" s="63"/>
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
@@ -5501,11 +5486,11 @@
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="63"/>
-      <c r="B19" s="203" t="s">
+      <c r="B19" s="207" t="s">
         <v>201</v>
       </c>
-      <c r="C19" s="204"/>
-      <c r="D19" s="205"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="63"/>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
@@ -5545,7 +5530,7 @@
     </row>
     <row r="22" spans="1:9" s="45" customFormat="1" ht="51">
       <c r="A22" s="57">
-        <f t="shared" ref="A22:A41" ca="1" si="0">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
+        <f t="shared" ref="A22:A39" ca="1" si="0">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
         <v>2</v>
       </c>
       <c r="B22" s="51" t="s">
@@ -5631,7 +5616,7 @@
       <c r="B26" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="238" t="s">
         <v>230</v>
       </c>
       <c r="D26" s="52" t="s">
@@ -5651,10 +5636,10 @@
       <c r="B27" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="C27" s="239" t="s">
+      <c r="C27" s="238" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="175" t="s">
+      <c r="D27" s="52" t="s">
         <v>241</v>
       </c>
       <c r="E27" s="53"/>
@@ -5671,10 +5656,10 @@
       <c r="B28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="C28" s="239" t="s">
+      <c r="C28" s="238" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="175" t="s">
+      <c r="D28" s="52" t="s">
         <v>240</v>
       </c>
       <c r="E28" s="53"/>
@@ -5691,10 +5676,10 @@
       <c r="B29" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="239" t="s">
+      <c r="C29" s="238" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="175" t="s">
+      <c r="D29" s="52" t="s">
         <v>242</v>
       </c>
       <c r="E29" s="53"/>
@@ -5711,10 +5696,10 @@
       <c r="B30" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="C30" s="239" t="s">
+      <c r="C30" s="238" t="s">
         <v>233</v>
       </c>
-      <c r="D30" s="175" t="s">
+      <c r="D30" s="52" t="s">
         <v>243</v>
       </c>
       <c r="E30" s="53"/>
@@ -5731,10 +5716,10 @@
       <c r="B31" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="239" t="s">
+      <c r="C31" s="238" t="s">
         <v>238</v>
       </c>
-      <c r="D31" s="175" t="s">
+      <c r="D31" s="52" t="s">
         <v>244</v>
       </c>
       <c r="E31" s="53"/>
@@ -5751,10 +5736,10 @@
       <c r="B32" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C32" s="239" t="s">
+      <c r="C32" s="238" t="s">
         <v>239</v>
       </c>
-      <c r="D32" s="175" t="s">
+      <c r="D32" s="52" t="s">
         <v>247</v>
       </c>
       <c r="E32" s="53"/>
@@ -5771,10 +5756,10 @@
       <c r="B33" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="239" t="s">
+      <c r="C33" s="238" t="s">
         <v>245</v>
       </c>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="52" t="s">
         <v>248</v>
       </c>
       <c r="E33" s="53"/>
@@ -5791,10 +5776,10 @@
       <c r="B34" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="239" t="s">
+      <c r="C34" s="238" t="s">
         <v>246</v>
       </c>
-      <c r="D34" s="175" t="s">
+      <c r="D34" s="52" t="s">
         <v>249</v>
       </c>
       <c r="E34" s="53"/>
@@ -5803,77 +5788,85 @@
       <c r="H34" s="51"/>
       <c r="I34" s="54"/>
     </row>
-    <row r="35" spans="1:9" s="45" customFormat="1">
+    <row r="35" spans="1:9" s="45" customFormat="1" ht="76.5">
       <c r="A35" s="57">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A35,-1,0) ="",OFFSET(A35,-2,0)+1,OFFSET(A35,-1,0)+1 )</f>
         <v>15</v>
       </c>
-      <c r="B35" s="239" t="s">
-        <v>283</v>
-      </c>
-      <c r="C35" s="239"/>
-      <c r="D35" s="175"/>
+      <c r="B35" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>277</v>
+      </c>
       <c r="E35" s="53"/>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
       <c r="I35" s="54"/>
     </row>
-    <row r="36" spans="1:9" s="45" customFormat="1">
+    <row r="36" spans="1:9" s="45" customFormat="1" ht="63.75">
       <c r="A36" s="57">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="B36" s="239" t="s">
-        <v>284</v>
-      </c>
-      <c r="C36" s="239"/>
-      <c r="D36" s="175"/>
+      <c r="B36" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>278</v>
+      </c>
       <c r="E36" s="53"/>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
       <c r="H36" s="51"/>
       <c r="I36" s="54"/>
     </row>
-    <row r="37" spans="1:9" s="45" customFormat="1" ht="76.5">
+    <row r="37" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A37" s="57">
-        <f ca="1">IF(OFFSET(A37,-1,0) ="",OFFSET(A37,-2,0)+1,OFFSET(A37,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D37" s="53" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E37" s="53"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
-      <c r="I37" s="54"/>
-    </row>
-    <row r="38" spans="1:9" s="45" customFormat="1" ht="63.75">
+      <c r="I37" s="60"/>
+    </row>
+    <row r="38" spans="1:9" s="48" customFormat="1" ht="63.75">
       <c r="A38" s="57">
         <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E38" s="53"/>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
       <c r="H38" s="51"/>
-      <c r="I38" s="54"/>
+      <c r="I38" s="60"/>
     </row>
     <row r="39" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A39" s="57">
@@ -5881,13 +5874,13 @@
         <v>19</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="E39" s="53"/>
       <c r="F39" s="51"/>
@@ -5895,19 +5888,19 @@
       <c r="H39" s="51"/>
       <c r="I39" s="60"/>
     </row>
-    <row r="40" spans="1:9" s="48" customFormat="1" ht="63.75">
+    <row r="40" spans="1:9" s="48" customFormat="1" ht="89.25">
       <c r="A40" s="57">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="A40:A154" ca="1" si="1">IF(OFFSET(A40,-1,0) ="",OFFSET(A40,-2,0)+1,OFFSET(A40,-1,0)+1 )</f>
         <v>20</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E40" s="53"/>
       <c r="F40" s="51"/>
@@ -5915,19 +5908,19 @@
       <c r="H40" s="51"/>
       <c r="I40" s="60"/>
     </row>
-    <row r="41" spans="1:9" s="48" customFormat="1" ht="76.5">
+    <row r="41" spans="1:9" s="48" customFormat="1" ht="140.25">
       <c r="A41" s="57">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="E41" s="53"/>
       <c r="F41" s="51"/>
@@ -5935,19 +5928,16 @@
       <c r="H41" s="51"/>
       <c r="I41" s="60"/>
     </row>
-    <row r="42" spans="1:9" s="48" customFormat="1" ht="89.25">
-      <c r="A42" s="57">
-        <f t="shared" ref="A42:A156" ca="1" si="1">IF(OFFSET(A42,-1,0) ="",OFFSET(A42,-2,0)+1,OFFSET(A42,-1,0)+1 )</f>
-        <v>22</v>
-      </c>
+    <row r="42" spans="1:9" s="48" customFormat="1" ht="140.25">
+      <c r="A42" s="57"/>
       <c r="B42" s="51" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E42" s="53"/>
       <c r="F42" s="51"/>
@@ -5955,19 +5945,19 @@
       <c r="H42" s="51"/>
       <c r="I42" s="60"/>
     </row>
-    <row r="43" spans="1:9" s="48" customFormat="1" ht="140.25">
+    <row r="43" spans="1:9" s="48" customFormat="1" ht="127.5">
       <c r="A43" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="51" t="s">
         <v>289</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E43" s="53"/>
       <c r="F43" s="51"/>
@@ -5975,16 +5965,19 @@
       <c r="H43" s="51"/>
       <c r="I43" s="60"/>
     </row>
-    <row r="44" spans="1:9" s="48" customFormat="1" ht="140.25">
-      <c r="A44" s="57"/>
+    <row r="44" spans="1:9" s="48" customFormat="1" ht="102">
+      <c r="A44" s="57">
+        <f ca="1">IF(OFFSET(A44,-1,0) ="",OFFSET(A44,-2,0)+1,OFFSET(A44,-1,0)+1 )</f>
+        <v>23</v>
+      </c>
       <c r="B44" s="51" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D44" s="53" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E44" s="53"/>
       <c r="F44" s="51"/>
@@ -5992,19 +5985,19 @@
       <c r="H44" s="51"/>
       <c r="I44" s="60"/>
     </row>
-    <row r="45" spans="1:9" s="48" customFormat="1" ht="127.5">
+    <row r="45" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A45" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="51"/>
@@ -6012,39 +6005,31 @@
       <c r="H45" s="51"/>
       <c r="I45" s="60"/>
     </row>
-    <row r="46" spans="1:9" s="48" customFormat="1" ht="102">
-      <c r="A46" s="57">
-        <f ca="1">IF(OFFSET(A46,-1,0) ="",OFFSET(A46,-2,0)+1,OFFSET(A46,-1,0)+1 )</f>
-        <v>25</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="60"/>
-    </row>
-    <row r="47" spans="1:9" s="48" customFormat="1" ht="76.5">
+    <row r="46" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B46" s="162" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="163"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="162"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="162"/>
+    </row>
+    <row r="47" spans="1:9" s="48" customFormat="1" ht="38.25">
       <c r="A47" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="E47" s="53"/>
       <c r="F47" s="51"/>
@@ -6052,17 +6037,25 @@
       <c r="H47" s="51"/>
       <c r="I47" s="60"/>
     </row>
-    <row r="48" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B48" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" s="163"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="162"/>
-      <c r="F48" s="165"/>
-      <c r="G48" s="165"/>
-      <c r="H48" s="165"/>
-      <c r="I48" s="162"/>
+    <row r="48" spans="1:9" s="48" customFormat="1" ht="38.25">
+      <c r="A48" s="57">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="E48" s="53"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="60"/>
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="38.25">
       <c r="A49" s="57">
@@ -6076,7 +6069,7 @@
         <v>304</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E49" s="53"/>
       <c r="F49" s="51"/>
@@ -6084,7 +6077,7 @@
       <c r="H49" s="51"/>
       <c r="I49" s="60"/>
     </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" ht="38.25">
+    <row r="50" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A50" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
@@ -6093,10 +6086,10 @@
         <v>298</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E50" s="53"/>
       <c r="F50" s="51"/>
@@ -6104,7 +6097,7 @@
       <c r="H50" s="51"/>
       <c r="I50" s="60"/>
     </row>
-    <row r="51" spans="1:9" s="48" customFormat="1" ht="38.25">
+    <row r="51" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A51" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>29</v>
@@ -6113,10 +6106,10 @@
         <v>299</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D51" s="53" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="51"/>
@@ -6133,10 +6126,10 @@
         <v>300</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E52" s="53"/>
       <c r="F52" s="51"/>
@@ -6144,39 +6137,31 @@
       <c r="H52" s="51"/>
       <c r="I52" s="60"/>
     </row>
-    <row r="53" spans="1:9" s="48" customFormat="1" ht="76.5">
-      <c r="A53" s="57">
+    <row r="53" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B53" s="162" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="163"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="162"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="162"/>
+    </row>
+    <row r="54" spans="1:9" s="48" customFormat="1" ht="38.25">
+      <c r="A54" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
-      <c r="B53" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="D53" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="E53" s="53"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="60"/>
-    </row>
-    <row r="54" spans="1:9" s="48" customFormat="1" ht="76.5">
-      <c r="A54" s="57">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
       <c r="B54" s="51" t="s">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="51"/>
@@ -6184,31 +6169,39 @@
       <c r="H54" s="51"/>
       <c r="I54" s="60"/>
     </row>
-    <row r="55" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B55" s="162" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="163"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="162"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="165"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="162"/>
-    </row>
-    <row r="56" spans="1:9" s="48" customFormat="1" ht="38.25">
+    <row r="55" spans="1:9" s="48" customFormat="1" ht="51">
+      <c r="A55" s="57">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="E55" s="53"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="60"/>
+    </row>
+    <row r="56" spans="1:9" s="48" customFormat="1" ht="51">
       <c r="A56" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D56" s="53" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="51"/>
@@ -6216,19 +6209,19 @@
       <c r="H56" s="51"/>
       <c r="I56" s="60"/>
     </row>
-    <row r="57" spans="1:9" s="48" customFormat="1" ht="51">
+    <row r="57" spans="1:9" s="48" customFormat="1" ht="76.5">
       <c r="A57" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>34</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D57" s="53" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E57" s="53"/>
       <c r="F57" s="51"/>
@@ -6236,13 +6229,13 @@
       <c r="H57" s="51"/>
       <c r="I57" s="60"/>
     </row>
-    <row r="58" spans="1:9" s="48" customFormat="1" ht="51">
+    <row r="58" spans="1:9" s="48" customFormat="1" ht="63.75">
       <c r="A58" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="B58" s="51" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="C58" s="51" t="s">
         <v>320</v>
@@ -6256,39 +6249,31 @@
       <c r="H58" s="51"/>
       <c r="I58" s="60"/>
     </row>
-    <row r="59" spans="1:9" s="48" customFormat="1" ht="76.5">
-      <c r="A59" s="57">
-        <f t="shared" ca="1" si="1"/>
+    <row r="59" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B59" s="162" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="163"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="162"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="162"/>
+    </row>
+    <row r="60" spans="1:9" s="48" customFormat="1" ht="51">
+      <c r="A60" s="57">
+        <f ca="1">IF(OFFSET(A60,-1,0) ="",OFFSET(A60,-2,0)+1,OFFSET(A60,-1,0)+1 )</f>
         <v>36</v>
       </c>
-      <c r="B59" s="51" t="s">
-        <v>325</v>
-      </c>
-      <c r="C59" s="51" t="s">
-        <v>326</v>
-      </c>
-      <c r="D59" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="E59" s="53"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="60"/>
-    </row>
-    <row r="60" spans="1:9" s="48" customFormat="1" ht="63.75">
-      <c r="A60" s="57">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
       <c r="B60" s="51" t="s">
-        <v>208</v>
+        <v>322</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="D60" s="53" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="E60" s="53"/>
       <c r="F60" s="51"/>
@@ -6298,7 +6283,7 @@
     </row>
     <row r="61" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
       <c r="B61" s="162" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C61" s="163"/>
       <c r="D61" s="164"/>
@@ -6310,17 +6295,17 @@
     </row>
     <row r="62" spans="1:9" s="48" customFormat="1" ht="51">
       <c r="A62" s="57">
-        <f ca="1">IF(OFFSET(A62,-1,0) ="",OFFSET(A62,-2,0)+1,OFFSET(A62,-1,0)+1 )</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="E62" s="53"/>
       <c r="F62" s="51"/>
@@ -6328,31 +6313,39 @@
       <c r="H62" s="51"/>
       <c r="I62" s="60"/>
     </row>
-    <row r="63" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B63" s="162" t="s">
-        <v>214</v>
-      </c>
-      <c r="C63" s="163"/>
-      <c r="D63" s="164"/>
-      <c r="E63" s="162"/>
-      <c r="F63" s="165"/>
-      <c r="G63" s="165"/>
-      <c r="H63" s="165"/>
-      <c r="I63" s="162"/>
-    </row>
-    <row r="64" spans="1:9" s="48" customFormat="1" ht="51">
+    <row r="63" spans="1:9" s="48" customFormat="1" ht="38.25">
+      <c r="A63" s="57">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="E63" s="53"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="60"/>
+    </row>
+    <row r="64" spans="1:9" s="48" customFormat="1" ht="38.25">
       <c r="A64" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>39</v>
       </c>
       <c r="B64" s="51" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C64" s="51" t="s">
         <v>332</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="51"/>
@@ -6360,19 +6353,19 @@
       <c r="H64" s="51"/>
       <c r="I64" s="60"/>
     </row>
-    <row r="65" spans="1:9" s="48" customFormat="1" ht="38.25">
+    <row r="65" spans="1:9" s="48" customFormat="1" ht="51">
       <c r="A65" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
       <c r="B65" s="51" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C65" s="51" t="s">
         <v>333</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E65" s="53"/>
       <c r="F65" s="51"/>
@@ -6380,19 +6373,19 @@
       <c r="H65" s="51"/>
       <c r="I65" s="60"/>
     </row>
-    <row r="66" spans="1:9" s="48" customFormat="1" ht="38.25">
+    <row r="66" spans="1:9" s="48" customFormat="1" ht="51">
       <c r="A66" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>41</v>
       </c>
       <c r="B66" s="51" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C66" s="51" t="s">
         <v>334</v>
       </c>
       <c r="D66" s="53" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E66" s="53"/>
       <c r="F66" s="51"/>
@@ -6406,13 +6399,13 @@
         <v>42</v>
       </c>
       <c r="B67" s="51" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="C67" s="51" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D67" s="53" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E67" s="53"/>
       <c r="F67" s="51"/>
@@ -6426,13 +6419,13 @@
         <v>43</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>211</v>
+        <v>341</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E68" s="53"/>
       <c r="F68" s="51"/>
@@ -6440,19 +6433,19 @@
       <c r="H68" s="51"/>
       <c r="I68" s="60"/>
     </row>
-    <row r="69" spans="1:9" s="48" customFormat="1" ht="51">
+    <row r="69" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A69" s="57">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(OFFSET(A69,-1,0) ="",OFFSET(A69,-2,0)+1,OFFSET(A69,-1,0)+1 )</f>
         <v>44</v>
       </c>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
       <c r="C69" s="51" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D69" s="53" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E69" s="53"/>
       <c r="F69" s="51"/>
@@ -6460,19 +6453,19 @@
       <c r="H69" s="51"/>
       <c r="I69" s="60"/>
     </row>
-    <row r="70" spans="1:9" s="48" customFormat="1" ht="51">
+    <row r="70" spans="1:9" s="48" customFormat="1" ht="89.25">
       <c r="A70" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
       <c r="B70" s="51" t="s">
-        <v>343</v>
+        <v>212</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E70" s="53"/>
       <c r="F70" s="51"/>
@@ -6480,39 +6473,31 @@
       <c r="H70" s="51"/>
       <c r="I70" s="60"/>
     </row>
-    <row r="71" spans="1:9" s="48" customFormat="1" ht="25.5">
-      <c r="A71" s="57">
-        <f ca="1">IF(OFFSET(A71,-1,0) ="",OFFSET(A71,-2,0)+1,OFFSET(A71,-1,0)+1 )</f>
-        <v>46</v>
-      </c>
-      <c r="B71" s="51" t="s">
-        <v>344</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>345</v>
-      </c>
-      <c r="D71" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="E71" s="53"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="60"/>
-    </row>
-    <row r="72" spans="1:9" s="48" customFormat="1" ht="89.25">
+    <row r="71" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B71" s="162" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="163"/>
+      <c r="D71" s="164"/>
+      <c r="E71" s="162"/>
+      <c r="F71" s="165"/>
+      <c r="G71" s="165"/>
+      <c r="H71" s="165"/>
+      <c r="I71" s="162"/>
+    </row>
+    <row r="72" spans="1:9" s="48" customFormat="1" ht="51">
       <c r="A72" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E72" s="53"/>
       <c r="F72" s="51"/>
@@ -6520,17 +6505,25 @@
       <c r="H72" s="51"/>
       <c r="I72" s="60"/>
     </row>
-    <row r="73" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B73" s="162" t="s">
-        <v>215</v>
-      </c>
-      <c r="C73" s="163"/>
-      <c r="D73" s="164"/>
-      <c r="E73" s="162"/>
-      <c r="F73" s="165"/>
-      <c r="G73" s="165"/>
-      <c r="H73" s="165"/>
-      <c r="I73" s="162"/>
+    <row r="73" spans="1:9" s="48" customFormat="1" ht="51">
+      <c r="A73" s="57">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="D73" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="E73" s="53"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="60"/>
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="51">
       <c r="A74" s="57">
@@ -6538,13 +6531,13 @@
         <v>48</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>213</v>
+        <v>348</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E74" s="53"/>
       <c r="F74" s="51"/>
@@ -6552,40 +6545,28 @@
       <c r="H74" s="51"/>
       <c r="I74" s="60"/>
     </row>
-    <row r="75" spans="1:9" s="48" customFormat="1" ht="51">
+    <row r="75" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A75" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>49</v>
       </c>
-      <c r="B75" s="51" t="s">
-        <v>349</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="D75" s="53" t="s">
-        <v>355</v>
-      </c>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="53"/>
       <c r="E75" s="53"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
       <c r="I75" s="60"/>
     </row>
-    <row r="76" spans="1:9" s="48" customFormat="1" ht="51">
+    <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A76" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>50</v>
       </c>
-      <c r="B76" s="51" t="s">
-        <v>350</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>354</v>
-      </c>
-      <c r="D76" s="53" t="s">
-        <v>356</v>
-      </c>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="53"/>
       <c r="E76" s="53"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -6594,7 +6575,7 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A77" s="57">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(OFFSET(A77,-1,0) ="",OFFSET(A77,-2,0)+1,OFFSET(A77,-1,0)+1 )</f>
         <v>51</v>
       </c>
       <c r="B77" s="51"/>
@@ -6622,7 +6603,7 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A79" s="57">
-        <f ca="1">IF(OFFSET(A79,-1,0) ="",OFFSET(A79,-2,0)+1,OFFSET(A79,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="1"/>
         <v>53</v>
       </c>
       <c r="B79" s="51"/>
@@ -6706,7 +6687,7 @@
     </row>
     <row r="85" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A85" s="57">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(OFFSET(A85,-1,0) ="",OFFSET(A85,-2,0)+1,OFFSET(A85,-1,0)+1 )</f>
         <v>59</v>
       </c>
       <c r="B85" s="51"/>
@@ -6720,7 +6701,7 @@
     </row>
     <row r="86" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A86" s="57">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="A86:A88" ca="1" si="2">IF(OFFSET(A86,-1,0) ="",OFFSET(A86,-2,0)+1,OFFSET(A86,-1,0)+1 )</f>
         <v>60</v>
       </c>
       <c r="B86" s="51"/>
@@ -6734,7 +6715,7 @@
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A87" s="57">
-        <f ca="1">IF(OFFSET(A87,-1,0) ="",OFFSET(A87,-2,0)+1,OFFSET(A87,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="B87" s="51"/>
@@ -6748,7 +6729,7 @@
     </row>
     <row r="88" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A88" s="57">
-        <f t="shared" ref="A88:A90" ca="1" si="2">IF(OFFSET(A88,-1,0) ="",OFFSET(A88,-2,0)+1,OFFSET(A88,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
       <c r="B88" s="51"/>
@@ -6762,7 +6743,7 @@
     </row>
     <row r="89" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A89" s="57">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(OFFSET(A89,-1,0) ="",OFFSET(A89,-2,0)+1,OFFSET(A89,-1,0)+1 )</f>
         <v>63</v>
       </c>
       <c r="B89" s="51"/>
@@ -6776,7 +6757,7 @@
     </row>
     <row r="90" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A90" s="57">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
       <c r="B90" s="51"/>
@@ -6790,7 +6771,7 @@
     </row>
     <row r="91" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A91" s="57">
-        <f ca="1">IF(OFFSET(A91,-1,0) ="",OFFSET(A91,-2,0)+1,OFFSET(A91,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
       <c r="B91" s="51"/>
@@ -6808,7 +6789,6 @@
         <v>66</v>
       </c>
       <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
       <c r="D92" s="53"/>
       <c r="E92" s="53"/>
       <c r="F92" s="51"/>
@@ -6836,6 +6816,7 @@
         <v>68</v>
       </c>
       <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
       <c r="D94" s="53"/>
       <c r="E94" s="53"/>
       <c r="F94" s="51"/>
@@ -6997,27 +6978,22 @@
       <c r="H105" s="51"/>
       <c r="I105" s="60"/>
     </row>
-    <row r="106" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A106" s="57">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="53"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="51"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="60"/>
+    <row r="106" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B106" s="162"/>
+      <c r="C106" s="163"/>
+      <c r="D106" s="164"/>
+      <c r="E106" s="162"/>
+      <c r="F106" s="165"/>
+      <c r="G106" s="165"/>
+      <c r="H106" s="165"/>
+      <c r="I106" s="162"/>
     </row>
     <row r="107" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A107" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B107" s="51"/>
-      <c r="C107" s="51"/>
       <c r="D107" s="53"/>
       <c r="E107" s="53"/>
       <c r="F107" s="51"/>
@@ -7025,15 +7001,19 @@
       <c r="H107" s="51"/>
       <c r="I107" s="60"/>
     </row>
-    <row r="108" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B108" s="162"/>
-      <c r="C108" s="163"/>
-      <c r="D108" s="164"/>
-      <c r="E108" s="162"/>
-      <c r="F108" s="165"/>
-      <c r="G108" s="165"/>
-      <c r="H108" s="165"/>
-      <c r="I108" s="162"/>
+    <row r="108" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A108" s="57">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B108" s="51"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="60"/>
     </row>
     <row r="109" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A109" s="57">
@@ -7041,6 +7021,7 @@
         <v>82</v>
       </c>
       <c r="B109" s="51"/>
+      <c r="C109" s="51"/>
       <c r="D109" s="53"/>
       <c r="E109" s="53"/>
       <c r="F109" s="51"/>
@@ -7104,61 +7085,61 @@
       <c r="H113" s="51"/>
       <c r="I113" s="60"/>
     </row>
-    <row r="114" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A114" s="57">
+    <row r="114" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B114" s="162"/>
+      <c r="C114" s="163"/>
+      <c r="D114" s="164"/>
+      <c r="E114" s="162"/>
+      <c r="F114" s="165"/>
+      <c r="G114" s="165"/>
+      <c r="H114" s="165"/>
+      <c r="I114" s="162"/>
+    </row>
+    <row r="115" spans="1:9" s="169" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A115" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>87</v>
       </c>
-      <c r="B114" s="51"/>
-      <c r="C114" s="51"/>
-      <c r="D114" s="53"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="60"/>
-    </row>
-    <row r="115" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A115" s="57">
+      <c r="B115" s="51"/>
+      <c r="C115" s="171"/>
+      <c r="D115" s="172"/>
+      <c r="E115" s="170"/>
+      <c r="F115" s="173"/>
+      <c r="G115" s="173"/>
+      <c r="H115" s="173"/>
+      <c r="I115" s="170"/>
+    </row>
+    <row r="116" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A116" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>88</v>
       </c>
-      <c r="B115" s="51"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="53"/>
-      <c r="F115" s="51"/>
-      <c r="G115" s="51"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="60"/>
-    </row>
-    <row r="116" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B116" s="162"/>
-      <c r="C116" s="163"/>
-      <c r="D116" s="164"/>
-      <c r="E116" s="162"/>
-      <c r="F116" s="165"/>
-      <c r="G116" s="165"/>
-      <c r="H116" s="165"/>
-      <c r="I116" s="162"/>
-    </row>
-    <row r="117" spans="1:9" s="169" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="53"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="60"/>
+    </row>
+    <row r="117" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A117" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>89</v>
       </c>
       <c r="B117" s="51"/>
-      <c r="C117" s="171"/>
-      <c r="D117" s="172"/>
-      <c r="E117" s="170"/>
-      <c r="F117" s="173"/>
-      <c r="G117" s="173"/>
-      <c r="H117" s="173"/>
-      <c r="I117" s="170"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="53"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="51"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="60"/>
     </row>
     <row r="118" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A118" s="57">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(OFFSET(A118,-1,0) ="",OFFSET(A118,-2,0)+1,OFFSET(A118,-1,0)+1 )</f>
         <v>90</v>
       </c>
       <c r="B118" s="51"/>
@@ -7186,7 +7167,7 @@
     </row>
     <row r="120" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A120" s="57">
-        <f ca="1">IF(OFFSET(A120,-1,0) ="",OFFSET(A120,-2,0)+1,OFFSET(A120,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="1"/>
         <v>92</v>
       </c>
       <c r="B120" s="51"/>
@@ -7288,51 +7269,51 @@
         <v>99</v>
       </c>
       <c r="B127" s="51"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="53"/>
+      <c r="C127" s="167"/>
+      <c r="D127" s="168"/>
       <c r="E127" s="53"/>
       <c r="F127" s="51"/>
       <c r="G127" s="51"/>
       <c r="H127" s="51"/>
       <c r="I127" s="60"/>
     </row>
-    <row r="128" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A128" s="57">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B128" s="51"/>
-      <c r="C128" s="51"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="53"/>
-      <c r="F128" s="51"/>
-      <c r="G128" s="51"/>
-      <c r="H128" s="51"/>
-      <c r="I128" s="60"/>
+    <row r="128" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B128" s="162"/>
+      <c r="C128" s="163"/>
+      <c r="D128" s="164"/>
+      <c r="E128" s="162"/>
+      <c r="F128" s="165"/>
+      <c r="G128" s="165"/>
+      <c r="H128" s="165"/>
+      <c r="I128" s="162"/>
     </row>
     <row r="129" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A129" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B129" s="51"/>
-      <c r="C129" s="167"/>
-      <c r="D129" s="168"/>
+      <c r="C129" s="51"/>
+      <c r="D129" s="53"/>
       <c r="E129" s="53"/>
       <c r="F129" s="51"/>
       <c r="G129" s="51"/>
       <c r="H129" s="51"/>
       <c r="I129" s="60"/>
     </row>
-    <row r="130" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B130" s="162"/>
-      <c r="C130" s="163"/>
-      <c r="D130" s="164"/>
-      <c r="E130" s="162"/>
-      <c r="F130" s="165"/>
-      <c r="G130" s="165"/>
-      <c r="H130" s="165"/>
-      <c r="I130" s="162"/>
+    <row r="130" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A130" s="57">
+        <f t="shared" ca="1" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B130" s="51"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="53"/>
+      <c r="E130" s="53"/>
+      <c r="F130" s="51"/>
+      <c r="G130" s="51"/>
+      <c r="H130" s="51"/>
+      <c r="I130" s="60"/>
     </row>
     <row r="131" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A131" s="57">
@@ -7349,62 +7330,62 @@
       <c r="I131" s="60"/>
     </row>
     <row r="132" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A132" s="57">
-        <f t="shared" ca="1" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="B132" s="51"/>
-      <c r="C132" s="51"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="51"/>
-      <c r="G132" s="51"/>
-      <c r="H132" s="51"/>
-      <c r="I132" s="60"/>
-    </row>
-    <row r="133" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A133" s="57">
-        <f t="shared" ca="1" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B133" s="51"/>
-      <c r="C133" s="51"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="53"/>
-      <c r="F133" s="51"/>
-      <c r="G133" s="51"/>
-      <c r="H133" s="51"/>
-      <c r="I133" s="60"/>
+      <c r="A132" s="73"/>
+      <c r="B132" s="210"/>
+      <c r="C132" s="211"/>
+      <c r="D132" s="212"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="62"/>
+      <c r="G132" s="62"/>
+      <c r="H132" s="62"/>
+      <c r="I132" s="65"/>
+    </row>
+    <row r="133" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B133" s="162"/>
+      <c r="C133" s="163"/>
+      <c r="D133" s="164"/>
+      <c r="E133" s="162"/>
+      <c r="F133" s="165"/>
+      <c r="G133" s="165"/>
+      <c r="H133" s="165"/>
+      <c r="I133" s="162"/>
     </row>
     <row r="134" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A134" s="73"/>
-      <c r="B134" s="206"/>
-      <c r="C134" s="207"/>
-      <c r="D134" s="208"/>
-      <c r="E134" s="65"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="62"/>
-      <c r="H134" s="62"/>
-      <c r="I134" s="65"/>
-    </row>
-    <row r="135" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B135" s="162"/>
-      <c r="C135" s="163"/>
-      <c r="D135" s="164"/>
-      <c r="E135" s="162"/>
-      <c r="F135" s="165"/>
-      <c r="G135" s="165"/>
-      <c r="H135" s="165"/>
-      <c r="I135" s="162"/>
+      <c r="A134" s="61">
+        <v>73</v>
+      </c>
+      <c r="B134" s="51"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="53"/>
+      <c r="F134" s="51"/>
+      <c r="G134" s="51"/>
+      <c r="H134" s="51"/>
+      <c r="I134" s="61"/>
+    </row>
+    <row r="135" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A135" s="61">
+        <f t="shared" ref="A135:A147" ca="1" si="3">IF(OFFSET(A135,-1,0) ="",OFFSET(A135,-2,0)+1,OFFSET(A135,-1,0)+1 )</f>
+        <v>74</v>
+      </c>
+      <c r="B135" s="51"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="51"/>
+      <c r="G135" s="51"/>
+      <c r="H135" s="51"/>
+      <c r="I135" s="61"/>
     </row>
     <row r="136" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A136" s="61">
-        <v>73</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
       </c>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="53"/>
-      <c r="E136" s="53"/>
+      <c r="E136" s="59"/>
       <c r="F136" s="51"/>
       <c r="G136" s="51"/>
       <c r="H136" s="51"/>
@@ -7412,13 +7393,13 @@
     </row>
     <row r="137" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A137" s="61">
-        <f t="shared" ref="A137:A149" ca="1" si="3">IF(OFFSET(A137,-1,0) ="",OFFSET(A137,-2,0)+1,OFFSET(A137,-1,0)+1 )</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
       </c>
       <c r="B137" s="51"/>
       <c r="C137" s="51"/>
       <c r="D137" s="53"/>
-      <c r="E137" s="53"/>
+      <c r="E137" s="59"/>
       <c r="F137" s="51"/>
       <c r="G137" s="51"/>
       <c r="H137" s="51"/>
@@ -7427,7 +7408,7 @@
     <row r="138" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A138" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B138" s="51"/>
       <c r="C138" s="51"/>
@@ -7441,7 +7422,7 @@
     <row r="139" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A139" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B139" s="51"/>
       <c r="C139" s="51"/>
@@ -7455,7 +7436,7 @@
     <row r="140" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A140" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B140" s="51"/>
       <c r="C140" s="51"/>
@@ -7469,7 +7450,7 @@
     <row r="141" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A141" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B141" s="51"/>
       <c r="C141" s="51"/>
@@ -7483,7 +7464,7 @@
     <row r="142" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A142" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B142" s="51"/>
       <c r="C142" s="51"/>
@@ -7497,7 +7478,7 @@
     <row r="143" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A143" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B143" s="51"/>
       <c r="C143" s="51"/>
@@ -7511,7 +7492,7 @@
     <row r="144" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A144" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B144" s="51"/>
       <c r="C144" s="51"/>
@@ -7525,7 +7506,7 @@
     <row r="145" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A145" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B145" s="51"/>
       <c r="C145" s="51"/>
@@ -7539,7 +7520,7 @@
     <row r="146" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A146" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B146" s="51"/>
       <c r="C146" s="51"/>
@@ -7553,40 +7534,36 @@
     <row r="147" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A147" s="61">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B147" s="51"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="53"/>
+      <c r="C147" s="167"/>
+      <c r="D147" s="168"/>
       <c r="E147" s="59"/>
       <c r="F147" s="51"/>
       <c r="G147" s="51"/>
       <c r="H147" s="51"/>
       <c r="I147" s="61"/>
     </row>
-    <row r="148" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A148" s="61">
-        <f t="shared" ca="1" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="B148" s="51"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="53"/>
-      <c r="E148" s="59"/>
-      <c r="F148" s="51"/>
-      <c r="G148" s="51"/>
-      <c r="H148" s="51"/>
-      <c r="I148" s="61"/>
+    <row r="148" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B148" s="162"/>
+      <c r="C148" s="163"/>
+      <c r="D148" s="164"/>
+      <c r="E148" s="162"/>
+      <c r="F148" s="165"/>
+      <c r="G148" s="165"/>
+      <c r="H148" s="165"/>
+      <c r="I148" s="162"/>
     </row>
     <row r="149" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A149" s="61">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
       </c>
       <c r="B149" s="51"/>
-      <c r="C149" s="167"/>
-      <c r="D149" s="168"/>
-      <c r="E149" s="59"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="53"/>
       <c r="F149" s="51"/>
       <c r="G149" s="51"/>
       <c r="H149" s="51"/>
@@ -7602,14 +7579,14 @@
       <c r="H150" s="165"/>
       <c r="I150" s="162"/>
     </row>
-    <row r="151" spans="1:9" s="48" customFormat="1" ht="14.25">
+    <row r="151" spans="1:9" s="48" customFormat="1" ht="30" customHeight="1">
       <c r="A151" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B151" s="51"/>
       <c r="C151" s="51"/>
-      <c r="D151" s="52"/>
+      <c r="D151" s="58"/>
       <c r="E151" s="53"/>
       <c r="F151" s="51"/>
       <c r="G151" s="51"/>
@@ -7626,38 +7603,42 @@
       <c r="H152" s="165"/>
       <c r="I152" s="162"/>
     </row>
-    <row r="153" spans="1:9" s="48" customFormat="1" ht="30" customHeight="1">
+    <row r="153" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A153" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B153" s="51"/>
       <c r="C153" s="51"/>
-      <c r="D153" s="58"/>
+      <c r="D153" s="52"/>
       <c r="E153" s="53"/>
       <c r="F153" s="51"/>
       <c r="G153" s="51"/>
       <c r="H153" s="51"/>
       <c r="I153" s="61"/>
     </row>
-    <row r="154" spans="1:9" s="166" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B154" s="162"/>
-      <c r="C154" s="163"/>
-      <c r="D154" s="164"/>
-      <c r="E154" s="162"/>
-      <c r="F154" s="165"/>
-      <c r="G154" s="165"/>
-      <c r="H154" s="165"/>
-      <c r="I154" s="162"/>
+    <row r="154" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A154" s="61">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B154" s="51"/>
+      <c r="C154" s="51"/>
+      <c r="D154" s="59"/>
+      <c r="E154" s="53"/>
+      <c r="F154" s="51"/>
+      <c r="G154" s="51"/>
+      <c r="H154" s="51"/>
+      <c r="I154" s="61"/>
     </row>
     <row r="155" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A155" s="61">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <f t="shared" ref="A155:A162" ca="1" si="4">IF(OFFSET(A155,-1,0) ="",OFFSET(A155,-2,0)+1,OFFSET(A155,-1,0)+1 )</f>
+        <v>91</v>
       </c>
       <c r="B155" s="51"/>
       <c r="C155" s="51"/>
-      <c r="D155" s="52"/>
+      <c r="D155" s="53"/>
       <c r="E155" s="53"/>
       <c r="F155" s="51"/>
       <c r="G155" s="51"/>
@@ -7666,13 +7647,13 @@
     </row>
     <row r="156" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A156" s="61">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
       </c>
       <c r="B156" s="51"/>
       <c r="C156" s="51"/>
-      <c r="D156" s="59"/>
-      <c r="E156" s="53"/>
+      <c r="D156" s="53"/>
+      <c r="E156" s="59"/>
       <c r="F156" s="51"/>
       <c r="G156" s="51"/>
       <c r="H156" s="51"/>
@@ -7680,13 +7661,13 @@
     </row>
     <row r="157" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A157" s="61">
-        <f t="shared" ref="A157:A164" ca="1" si="4">IF(OFFSET(A157,-1,0) ="",OFFSET(A157,-2,0)+1,OFFSET(A157,-1,0)+1 )</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
       </c>
       <c r="B157" s="51"/>
       <c r="C157" s="51"/>
-      <c r="D157" s="53"/>
-      <c r="E157" s="53"/>
+      <c r="D157" s="59"/>
+      <c r="E157" s="59"/>
       <c r="F157" s="51"/>
       <c r="G157" s="51"/>
       <c r="H157" s="51"/>
@@ -7695,12 +7676,12 @@
     <row r="158" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A158" s="61">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B158" s="51"/>
       <c r="C158" s="51"/>
-      <c r="D158" s="53"/>
-      <c r="E158" s="59"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="53"/>
       <c r="F158" s="51"/>
       <c r="G158" s="51"/>
       <c r="H158" s="51"/>
@@ -7709,12 +7690,12 @@
     <row r="159" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A159" s="61">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B159" s="51"/>
       <c r="C159" s="51"/>
       <c r="D159" s="59"/>
-      <c r="E159" s="59"/>
+      <c r="E159" s="53"/>
       <c r="F159" s="51"/>
       <c r="G159" s="51"/>
       <c r="H159" s="51"/>
@@ -7723,11 +7704,11 @@
     <row r="160" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A160" s="61">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B160" s="51"/>
       <c r="C160" s="51"/>
-      <c r="D160" s="52"/>
+      <c r="D160" s="59"/>
       <c r="E160" s="53"/>
       <c r="F160" s="51"/>
       <c r="G160" s="51"/>
@@ -7737,7 +7718,7 @@
     <row r="161" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A161" s="61">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
@@ -7751,7 +7732,7 @@
     <row r="162" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A162" s="61">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
@@ -7762,58 +7743,30 @@
       <c r="H162" s="51"/>
       <c r="I162" s="61"/>
     </row>
-    <row r="163" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A163" s="61">
-        <f t="shared" ca="1" si="4"/>
-        <v>97</v>
-      </c>
-      <c r="B163" s="51"/>
-      <c r="C163" s="51"/>
-      <c r="D163" s="59"/>
-      <c r="E163" s="53"/>
-      <c r="F163" s="51"/>
-      <c r="G163" s="51"/>
-      <c r="H163" s="51"/>
-      <c r="I163" s="61"/>
-    </row>
-    <row r="164" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A164" s="61">
-        <f t="shared" ca="1" si="4"/>
-        <v>98</v>
-      </c>
-      <c r="B164" s="51"/>
-      <c r="C164" s="51"/>
-      <c r="D164" s="59"/>
-      <c r="E164" s="53"/>
-      <c r="F164" s="51"/>
-      <c r="G164" s="51"/>
-      <c r="H164" s="51"/>
-      <c r="I164" s="61"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F150:H150 F135:H135 F108:H108 F116:H117 F130:H130 F152:H152 F154:H154 F18:H20 F48:H48 F55:H55 F63:H63 F73:H73 F61:H61"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F165:H222">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F148:H148 F133:H133 F106:H106 F114:H115 F128:H128 F150:H150 F152:H152 F18:H20 F46:H46 F53:H53 F61:H61 F71:H71 F59:H59"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F163:H220">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F131:H134 F109:H115 F151:H151 F153:H153 F155:H164 F118:H129 F136:H149 F74:H107 F56:H60 F49:H54 F62:H62 F21:H47 F64:H72">
+    <dataValidation type="list" allowBlank="1" sqref="F129:H132 F107:H113 F149:H149 F151:H151 F153:H162 F116:H127 F134:H147 F72:H105 F54:H58 F47:H52 F60:H60 F62:H70 F21:H45">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -7861,13 +7814,13 @@
     </row>
     <row r="2" spans="1:12" s="80" customFormat="1" ht="26.25">
       <c r="A2" s="79"/>
-      <c r="C2" s="234" t="s">
+      <c r="C2" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="81" t="s">
         <v>115</v>
       </c>
@@ -7878,15 +7831,15 @@
     </row>
     <row r="3" spans="1:12" s="80" customFormat="1" ht="23.25">
       <c r="A3" s="79"/>
-      <c r="C3" s="235" t="s">
+      <c r="C3" s="218" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="235"/>
+      <c r="D3" s="218"/>
       <c r="E3" s="152"/>
-      <c r="F3" s="236" t="s">
+      <c r="F3" s="219" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="236"/>
+      <c r="G3" s="219"/>
       <c r="H3" s="82"/>
       <c r="I3" s="82"/>
       <c r="J3" s="83"/>
@@ -7911,10 +7864,10 @@
       <c r="L5" s="88"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="220" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="218"/>
+      <c r="C6" s="220"/>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
       <c r="F6" s="90"/>
@@ -8083,11 +8036,11 @@
       <c r="G13" s="94"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="220" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
+      <c r="C14" s="220"/>
+      <c r="D14" s="220"/>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
       <c r="G14" s="91"/>
@@ -8263,11 +8216,11 @@
       <c r="G22" s="94"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="218" t="s">
+      <c r="B23" s="220" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="218"/>
-      <c r="D23" s="218"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="220"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -8313,10 +8266,10 @@
       <c r="F26" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="237" t="s">
+      <c r="G26" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="238"/>
+      <c r="H26" s="222"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="96">
@@ -8341,8 +8294,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="229"/>
-      <c r="H27" s="230"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="216"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="96">
@@ -8367,8 +8320,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="229"/>
-      <c r="H28" s="230"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="216"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="96">
@@ -8393,8 +8346,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="229"/>
-      <c r="H29" s="230"/>
+      <c r="G29" s="215"/>
+      <c r="H29" s="216"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="96">
@@ -8419,8 +8372,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="229"/>
-      <c r="H30" s="230"/>
+      <c r="G30" s="215"/>
+      <c r="H30" s="216"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="96"/>
@@ -8441,8 +8394,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="229"/>
-      <c r="H31" s="230"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="216"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="102"/>
@@ -8483,7 +8436,7 @@
       <c r="F34" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="225"/>
+      <c r="G34" s="224"/>
     </row>
     <row r="35" spans="1:12" s="121" customFormat="1">
       <c r="A35" s="117"/>
@@ -8499,8 +8452,8 @@
       <c r="E35" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="232"/>
-      <c r="G35" s="233"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="227"/>
       <c r="H35" s="120"/>
       <c r="I35" s="120"/>
       <c r="J35" s="120"/>
@@ -8523,8 +8476,8 @@
       <c r="E36" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="229"/>
-      <c r="G36" s="230"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="216"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="96">
@@ -8542,8 +8495,8 @@
       <c r="E37" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="229"/>
-      <c r="G37" s="230"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="216"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="102"/>
@@ -8556,10 +8509,10 @@
       <c r="H38" s="104"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="218" t="s">
+      <c r="B39" s="220" t="s">
         <v>179</v>
       </c>
-      <c r="C39" s="218"/>
+      <c r="C39" s="220"/>
       <c r="D39" s="90"/>
       <c r="E39" s="90"/>
       <c r="F39" s="90"/>
@@ -8583,15 +8536,15 @@
       <c r="B41" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="231" t="s">
+      <c r="C41" s="225" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="231"/>
-      <c r="E41" s="231" t="s">
+      <c r="D41" s="225"/>
+      <c r="E41" s="225" t="s">
         <v>182</v>
       </c>
-      <c r="F41" s="231"/>
-      <c r="G41" s="231"/>
+      <c r="F41" s="225"/>
+      <c r="G41" s="225"/>
       <c r="H41" s="95" t="s">
         <v>183</v>
       </c>
@@ -8659,10 +8612,10 @@
       <c r="G45" s="94"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="218" t="s">
+      <c r="B46" s="220" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="218"/>
+      <c r="C46" s="220"/>
       <c r="D46" s="90"/>
       <c r="E46" s="90"/>
       <c r="F46" s="90"/>
@@ -8680,25 +8633,25 @@
       <c r="G47" s="94"/>
     </row>
     <row r="48" spans="1:12" s="109" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="219" t="s">
+      <c r="A48" s="231" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="221" t="s">
+      <c r="B48" s="233" t="s">
         <v>189</v>
       </c>
       <c r="C48" s="223" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="224"/>
-      <c r="E48" s="224"/>
-      <c r="F48" s="225"/>
-      <c r="G48" s="226" t="s">
+      <c r="D48" s="235"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="224"/>
+      <c r="G48" s="236" t="s">
         <v>157</v>
       </c>
-      <c r="H48" s="226" t="s">
+      <c r="H48" s="236" t="s">
         <v>189</v>
       </c>
-      <c r="I48" s="216" t="s">
+      <c r="I48" s="229" t="s">
         <v>191</v>
       </c>
       <c r="J48" s="108"/>
@@ -8706,8 +8659,8 @@
       <c r="L48" s="108"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="220"/>
-      <c r="B49" s="222"/>
+      <c r="A49" s="232"/>
+      <c r="B49" s="234"/>
       <c r="C49" s="110" t="s">
         <v>166</v>
       </c>
@@ -8720,13 +8673,13 @@
       <c r="F49" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="227"/>
-      <c r="H49" s="227"/>
-      <c r="I49" s="217"/>
+      <c r="G49" s="237"/>
+      <c r="H49" s="237"/>
+      <c r="I49" s="230"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="220"/>
-      <c r="B50" s="222"/>
+      <c r="A50" s="232"/>
+      <c r="B50" s="234"/>
       <c r="C50" s="124" t="s">
         <v>192</v>
       </c>
@@ -8838,6 +8791,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -8850,26 +8823,6 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -8907,21 +8860,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -9086,32 +9024,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9128,4 +9056,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>